--- a/Assets/Resources/DataTables/PlotsExcel.xlsx
+++ b/Assets/Resources/DataTables/PlotsExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>对话id</t>
   </si>
@@ -126,7 +126,7 @@
     <t>立绘-英雄-恶魔领主</t>
   </si>
   <si>
-    <t>立绘-英雄-黑暗神官</t>
+    <t>null</t>
   </si>
   <si>
     <t>年龄33岁</t>
@@ -135,9 +135,6 @@
     <t>家住在地狱北部</t>
   </si>
   <si>
-    <t>立绘-英雄-吸血鬼</t>
-  </si>
-  <si>
     <t>赶紧炸吧</t>
   </si>
   <si>
@@ -147,13 +144,7 @@
     <t>不抽烟，酒也浅尝即止</t>
   </si>
   <si>
-    <t>哼哼啊啊啊啊啊</t>
-  </si>
-  <si>
     <t>每天去征服一个世界，医生都说我很健康</t>
-  </si>
-  <si>
-    <t>立绘-看板娘-魔女萨曼莎</t>
   </si>
   <si>
     <t>我只想告诉你我想追求平静的生活</t>
@@ -174,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -190,34 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -234,6 +197,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -243,41 +245,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,7 +298,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,49 +340,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,121 +478,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,21 +545,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +578,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,148 +651,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -815,52 +806,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1162,8 +1153,8 @@
   <sheetPr/>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1345,7 +1336,7 @@
         <v>36</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1392,7 +1383,7 @@
         <v>36</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1436,7 +1427,7 @@
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1454,10 +1445,10 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
         <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>41</v>
       </c>
       <c r="N6">
         <v>1000006</v>
@@ -1471,10 +1462,10 @@
         <v>1000004</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1483,10 +1474,10 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1518,7 +1509,7 @@
         <v>1000005</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -1530,7 +1521,7 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1565,7 +1556,7 @@
         <v>1000006</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1577,28 +1568,28 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
         <v>45</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" t="s">
-        <v>48</v>
       </c>
       <c r="N9">
         <v>1000007</v>
@@ -1612,7 +1603,7 @@
         <v>1000007</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1624,7 +1615,7 @@
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1659,7 +1650,7 @@
         <v>1000008</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -1668,10 +1659,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>0</v>

--- a/Assets/Resources/DataTables/PlotsExcel.xlsx
+++ b/Assets/Resources/DataTables/PlotsExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>对话id</t>
   </si>
@@ -36,31 +36,16 @@
     <t>右立绘</t>
   </si>
   <si>
-    <t>对话事件1</t>
-  </si>
-  <si>
-    <t>对话事件2</t>
-  </si>
-  <si>
-    <t>对话事件3</t>
-  </si>
-  <si>
-    <t>对话事件4</t>
+    <t>对话事件s</t>
   </si>
   <si>
     <t>是否有选项</t>
   </si>
   <si>
-    <t>选项1</t>
-  </si>
-  <si>
-    <t>选项2</t>
-  </si>
-  <si>
-    <t>选项1跳转id</t>
-  </si>
-  <si>
-    <t>选项2跳转id</t>
+    <t>选项内容s</t>
+  </si>
+  <si>
+    <t>选项跳转ids</t>
   </si>
   <si>
     <t>id</t>
@@ -84,30 +69,15 @@
     <t>Event1</t>
   </si>
   <si>
-    <t>Event2</t>
-  </si>
-  <si>
-    <t>Event3</t>
-  </si>
-  <si>
-    <t>Event4</t>
-  </si>
-  <si>
     <t>haveOpinion</t>
   </si>
   <si>
-    <t>Opinion1</t>
-  </si>
-  <si>
-    <t>Opinion2</t>
+    <t>OpinionContent</t>
   </si>
   <si>
     <t>Opinion1Target</t>
   </si>
   <si>
-    <t>Opinion2Target</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -117,6 +87,12 @@
     <t>bool</t>
   </si>
   <si>
+    <t>string/string</t>
+  </si>
+  <si>
+    <t>int/int</t>
+  </si>
+  <si>
     <t>我的名字是恶魔领主</t>
   </si>
   <si>
@@ -138,10 +114,10 @@
     <t>立绘-英雄-吸血鬼</t>
   </si>
   <si>
-    <t>赶紧炸吧</t>
-  </si>
-  <si>
-    <t>你在说什么啊！</t>
+    <t>赶紧炸吧/你在说什么啊</t>
+  </si>
+  <si>
+    <t>1000006/1000004</t>
   </si>
   <si>
     <t>不抽烟，酒也浅尝即止</t>
@@ -159,10 +135,10 @@
     <t>我只想告诉你我想追求平静的生活</t>
   </si>
   <si>
-    <t>阿巴巴</t>
-  </si>
-  <si>
-    <t>阿巴阿巴</t>
+    <t>好好好/你能再说一遍么</t>
+  </si>
+  <si>
+    <t>1000007/1000001</t>
   </si>
   <si>
     <t>不过真要打起来我也不会输给谁就是了</t>
@@ -174,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -190,55 +166,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +223,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -328,7 +283,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,49 +325,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,121 +463,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,21 +530,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +563,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,148 +636,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -815,52 +791,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1160,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1174,17 +1150,13 @@
     <col min="5" max="5" width="21.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="22.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="12.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="11.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="12.2222222222222" customWidth="1"/>
-    <col min="10" max="10" width="10.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="13.7777777777778" customWidth="1"/>
-    <col min="12" max="12" width="8.55555555555556" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="15.7777777777778" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="8" max="8" width="13.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="33.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="15.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,139 +1187,94 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1000001</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4">
@@ -1356,45 +1283,30 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1000002</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5">
@@ -1403,92 +1315,62 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1000003</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
+      <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6">
-        <v>1000006</v>
-      </c>
-      <c r="O6">
-        <v>1000004</v>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1000004</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7">
@@ -1497,45 +1379,30 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>1000005</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8">
@@ -1544,92 +1411,62 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>1000006</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
+      <c r="H9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9">
-        <v>1000007</v>
-      </c>
-      <c r="O9">
-        <v>1000001</v>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>1000007</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10">
@@ -1638,66 +1475,36 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>1000008</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/DataTables/PlotsExcel.xlsx
+++ b/Assets/Resources/DataTables/PlotsExcel.xlsx
@@ -1138,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1151,7 +1151,7 @@
     <col min="6" max="6" width="22.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="12.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="13.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="33.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="21.7777777777778" customWidth="1"/>
     <col min="10" max="10" width="15.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
